--- a/main/StructureDefinition-MeinPatientenProfil.xlsx
+++ b/main/StructureDefinition-MeinPatientenProfil.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$61</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2233" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2305" uniqueCount="471">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T08:26:21+00:00</t>
+    <t>2026-02-10T10:57:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -426,38 +426,62 @@
     <t>Patient.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Patient.extension:spezies</t>
+  </si>
+  <si>
+    <t>spezies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://gefyra.info/simone/StructureDefinition/MeineSpeziesExtension}
+</t>
+  </si>
+  <si>
+    <t>Erweiterung zur Angabe der Spezies eines Patienten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Patient.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Patient.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -519,6 +543,9 @@
     <t>This resource is generally assumed to be active if no value is provided for the active element</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>statusCode</t>
   </si>
   <si>
@@ -720,20 +747,10 @@
     <t>Patient.address.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
+    <t>2</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -750,6 +767,19 @@
   </si>
   <si>
     <t>Dies ist eine Extension, um Angaben zum Planeten an eine Adresse hinzuzufügen</t>
+  </si>
+  <si>
+    <t>Patient.address.extension:quadrant</t>
+  </si>
+  <si>
+    <t>quadrant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://gefyra.info/simone/StructureDefinition/MeineQuadrantenExtension}
+</t>
+  </si>
+  <si>
+    <t>Extension zur Angabe des Quadranten an einer Adresse</t>
   </si>
   <si>
     <t>Patient.address.use</t>
@@ -1129,6 +1159,9 @@
   </si>
   <si>
     <t>Patient.contact.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -1772,7 +1805,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO59"/>
+  <dimension ref="A1:AO61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1791,7 +1824,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="64.0546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="68.5078125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2772,11 +2805,11 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>79</v>
@@ -2791,17 +2824,15 @@
         <v>19</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>136</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>19</v>
@@ -2838,16 +2869,14 @@
         <v>19</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>137</v>
@@ -2865,7 +2894,7 @@
         <v>138</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>19</v>
@@ -2880,48 +2909,46 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>19</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>140</v>
-      </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O10" t="s" s="2">
         <v>142</v>
       </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>19</v>
       </c>
@@ -2969,7 +2996,7 @@
         <v>19</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2978,13 +3005,13 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>19</v>
@@ -3008,7 +3035,7 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -3021,13 +3048,13 @@
         <v>19</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="L11" t="s" s="2">
         <v>146</v>
@@ -3035,9 +3062,11 @@
       <c r="M11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="N11" s="2"/>
+      <c r="N11" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>19</v>
@@ -3086,7 +3115,7 @@
         <v>19</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -3098,19 +3127,19 @@
         <v>19</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>19</v>
@@ -3118,10 +3147,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3132,38 +3161,34 @@
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="N12" s="2"/>
+      <c r="O12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="M12" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>158</v>
-      </c>
       <c r="P12" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="Q12" t="s" s="2">
-        <v>159</v>
-      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
         <v>19</v>
       </c>
@@ -3207,13 +3232,13 @@
         <v>19</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>19</v>
@@ -3222,27 +3247,27 @@
         <v>99</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AN12" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AO12" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AL12" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AO12" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" hidden="true">
-      <c r="A13" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="B13" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3250,42 +3275,44 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="P13" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q13" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="N13" t="s" s="2">
+      <c r="R13" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="O13" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="P13" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q13" s="2"/>
-      <c r="R13" t="s" s="2">
-        <v>19</v>
-      </c>
       <c r="S13" t="s" s="2">
         <v>19</v>
       </c>
@@ -3326,13 +3353,13 @@
         <v>19</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>19</v>
@@ -3341,16 +3368,16 @@
         <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AM13" t="s" s="2">
-        <v>19</v>
-      </c>
       <c r="AN13" t="s" s="2">
-        <v>171</v>
+        <v>19</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>19</v>
@@ -3358,10 +3385,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3384,19 +3411,19 @@
         <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="N14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>19</v>
@@ -3445,7 +3472,7 @@
         <v>19</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3460,16 +3487,16 @@
         <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AN14" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>19</v>
@@ -3477,10 +3504,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3491,7 +3518,7 @@
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>19</v>
@@ -3503,7 +3530,7 @@
         <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>107</v>
+        <v>181</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>182</v>
@@ -3540,13 +3567,13 @@
         <v>19</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>186</v>
+        <v>19</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>187</v>
+        <v>19</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>188</v>
+        <v>19</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>19</v>
@@ -3564,13 +3591,13 @@
         <v>19</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>19</v>
@@ -3579,27 +3606,27 @@
         <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AM15" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AN15" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AO15" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" hidden="true">
+      <c r="A16" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AL15" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>192</v>
-      </c>
       <c r="B16" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3607,13 +3634,13 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>19</v>
@@ -3622,19 +3649,19 @@
         <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="O16" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>19</v>
@@ -3659,13 +3686,13 @@
         <v>19</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>19</v>
+        <v>194</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>19</v>
+        <v>195</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>19</v>
@@ -3683,7 +3710,7 @@
         <v>19</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3698,27 +3725,27 @@
         <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AM16" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AO16" t="s" s="2">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="17" hidden="true">
-      <c r="A17" t="s" s="2">
-        <v>202</v>
-      </c>
       <c r="B17" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3732,28 +3759,28 @@
         <v>87</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>19</v>
@@ -3802,7 +3829,7 @@
         <v>19</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3817,22 +3844,22 @@
         <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AL17" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AO17" t="s" s="2">
-        <v>19</v>
-      </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>210</v>
       </c>
@@ -3845,16 +3872,16 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G18" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H18" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>19</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>88</v>
@@ -3927,7 +3954,7 @@
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>19</v>
@@ -3939,24 +3966,24 @@
         <v>216</v>
       </c>
       <c r="AL18" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AM18" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AN18" t="s" s="2">
+      <c r="AO18" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AO18" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" hidden="true">
-      <c r="A19" t="s" s="2">
-        <v>219</v>
-      </c>
       <c r="B19" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3967,28 +3994,32 @@
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>19</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="O19" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>19</v>
       </c>
@@ -4036,31 +4067,31 @@
         <v>19</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>19</v>
+        <v>225</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>19</v>
+        <v>226</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>19</v>
@@ -4068,10 +4099,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4079,11 +4110,11 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G20" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H20" t="s" s="2">
         <v>19</v>
       </c>
@@ -4094,13 +4125,13 @@
         <v>19</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>133</v>
+        <v>228</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4139,34 +4170,34 @@
         <v>19</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>227</v>
+        <v>19</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>228</v>
+        <v>19</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>229</v>
+        <v>19</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>19</v>
+        <v>169</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>19</v>
@@ -4181,28 +4212,26 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="C21" t="s" s="2">
         <v>232</v>
       </c>
+      <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
         <v>19</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>87</v>
+        <v>233</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>19</v>
@@ -4211,13 +4240,13 @@
         <v>19</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>233</v>
+        <v>132</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>225</v>
+        <v>133</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>234</v>
+        <v>134</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4256,19 +4285,19 @@
         <v>19</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>19</v>
+        <v>234</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4298,48 +4327,46 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="D22" t="s" s="2">
         <v>19</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>107</v>
+        <v>238</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>236</v>
+        <v>133</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="O22" t="s" s="2">
         <v>239</v>
       </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>19</v>
       </c>
@@ -4351,111 +4378,111 @@
         <v>19</v>
       </c>
       <c r="T22" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AN22" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AO22" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="U22" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="Y22" t="s" s="2">
+      <c r="B23" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="C23" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="Z22" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" hidden="true">
-      <c r="A23" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
         <v>19</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>19</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>107</v>
+        <v>242</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>247</v>
+        <v>133</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>19</v>
@@ -4468,7 +4495,7 @@
         <v>19</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>250</v>
+        <v>19</v>
       </c>
       <c r="U23" t="s" s="2">
         <v>19</v>
@@ -4480,13 +4507,13 @@
         <v>19</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>186</v>
+        <v>19</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>251</v>
+        <v>19</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>252</v>
+        <v>19</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>19</v>
@@ -4504,22 +4531,22 @@
         <v>19</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>244</v>
+        <v>19</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>19</v>
@@ -4528,7 +4555,7 @@
         <v>19</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>19</v>
@@ -4536,10 +4563,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4556,25 +4583,25 @@
         <v>19</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>220</v>
+        <v>107</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>19</v>
@@ -4587,7 +4614,7 @@
         <v>19</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>19</v>
@@ -4599,13 +4626,13 @@
         <v>19</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>19</v>
+        <v>194</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>19</v>
+        <v>250</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>19</v>
+        <v>251</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>19</v>
@@ -4623,7 +4650,7 @@
         <v>19</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4638,7 +4665,7 @@
         <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>19</v>
@@ -4647,18 +4674,18 @@
         <v>19</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4666,13 +4693,13 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G25" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H25" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>19</v>
@@ -4681,15 +4708,17 @@
         <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>220</v>
+        <v>107</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>19</v>
@@ -4702,7 +4731,7 @@
         <v>19</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>19</v>
@@ -4714,13 +4743,13 @@
         <v>19</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>19</v>
+        <v>194</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>19</v>
+        <v>260</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>19</v>
+        <v>261</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>19</v>
@@ -4738,13 +4767,13 @@
         <v>19</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>19</v>
@@ -4753,7 +4782,7 @@
         <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>19</v>
@@ -4762,22 +4791,22 @@
         <v>19</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>272</v>
+        <v>19</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4787,7 +4816,7 @@
         <v>87</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>19</v>
@@ -4796,16 +4825,20 @@
         <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>19</v>
       </c>
@@ -4817,7 +4850,7 @@
         <v>19</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>19</v>
@@ -4853,7 +4886,7 @@
         <v>19</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4868,7 +4901,7 @@
         <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>19</v>
@@ -4877,32 +4910,32 @@
         <v>19</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>280</v>
+        <v>19</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>19</v>
@@ -4911,17 +4944,15 @@
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>19</v>
@@ -4934,7 +4965,7 @@
         <v>19</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>19</v>
@@ -4970,13 +5001,13 @@
         <v>19</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>19</v>
@@ -4985,7 +5016,7 @@
         <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>19</v>
@@ -4994,22 +5025,22 @@
         <v>19</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5019,7 +5050,7 @@
         <v>87</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>19</v>
@@ -5028,13 +5059,13 @@
         <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5049,7 +5080,7 @@
         <v>19</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>19</v>
+        <v>284</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>19</v>
@@ -5085,7 +5116,7 @@
         <v>19</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5100,7 +5131,7 @@
         <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>19</v>
@@ -5109,32 +5140,32 @@
         <v>19</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>19</v>
@@ -5143,15 +5174,17 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>19</v>
@@ -5164,7 +5197,7 @@
         <v>19</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="U29" t="s" s="2">
         <v>19</v>
@@ -5200,7 +5233,7 @@
         <v>19</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5215,7 +5248,7 @@
         <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>19</v>
@@ -5224,7 +5257,7 @@
         <v>19</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>19</v>
@@ -5232,14 +5265,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>19</v>
+        <v>298</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5258,17 +5291,15 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>19</v>
@@ -5317,7 +5348,7 @@
         <v>19</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5332,7 +5363,7 @@
         <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>19</v>
@@ -5341,32 +5372,32 @@
         <v>19</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>19</v>
+        <v>305</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>19</v>
@@ -5375,18 +5406,16 @@
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>311</v>
+        <v>228</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>314</v>
-      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>19</v>
       </c>
@@ -5398,7 +5427,7 @@
         <v>19</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="U31" t="s" s="2">
         <v>19</v>
@@ -5434,7 +5463,7 @@
         <v>19</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5449,7 +5478,7 @@
         <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>19</v>
@@ -5458,7 +5487,7 @@
         <v>19</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>19</v>
@@ -5466,10 +5495,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5489,21 +5518,21 @@
         <v>19</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>320</v>
+        <v>228</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>19</v>
       </c>
@@ -5527,13 +5556,13 @@
         <v>19</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>324</v>
+        <v>19</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>325</v>
+        <v>19</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>326</v>
+        <v>19</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>19</v>
@@ -5551,7 +5580,7 @@
         <v>19</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5566,16 +5595,16 @@
         <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>328</v>
+        <v>19</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>19</v>
@@ -5583,10 +5612,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5606,22 +5635,20 @@
         <v>19</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>19</v>
@@ -5634,7 +5661,7 @@
         <v>19</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>19</v>
+        <v>324</v>
       </c>
       <c r="U33" t="s" s="2">
         <v>19</v>
@@ -5670,7 +5697,7 @@
         <v>19</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5685,16 +5712,16 @@
         <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>19</v>
@@ -5702,10 +5729,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5716,7 +5743,7 @@
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>19</v>
@@ -5728,19 +5755,17 @@
         <v>19</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>19</v>
@@ -5765,13 +5790,13 @@
         <v>19</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>19</v>
+        <v>333</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>19</v>
+        <v>334</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>19</v>
+        <v>335</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>19</v>
@@ -5789,13 +5814,13 @@
         <v>19</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>19</v>
@@ -5804,16 +5829,16 @@
         <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>161</v>
+        <v>337</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>19</v>
@@ -5821,10 +5846,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5835,7 +5860,7 @@
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>19</v>
@@ -5847,19 +5872,19 @@
         <v>19</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>19</v>
@@ -5908,31 +5933,31 @@
         <v>19</v>
       </c>
       <c r="AF35" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>19</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>19</v>
@@ -5940,10 +5965,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5954,7 +5979,7 @@
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>19</v>
@@ -5966,16 +5991,20 @@
         <v>19</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>220</v>
+        <v>348</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>221</v>
+        <v>349</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>19</v>
       </c>
@@ -6023,31 +6052,31 @@
         <v>19</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>223</v>
+        <v>347</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>161</v>
+        <v>353</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>19</v>
+        <v>169</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>19</v>
+        <v>354</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>19</v>
@@ -6062,7 +6091,7 @@
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6081,18 +6110,20 @@
         <v>19</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>133</v>
+        <v>356</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>134</v>
+        <v>357</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>19</v>
       </c>
@@ -6140,7 +6171,7 @@
         <v>19</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>230</v>
+        <v>355</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6152,13 +6183,13 @@
         <v>19</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>138</v>
+        <v>361</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>161</v>
+        <v>362</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>19</v>
+        <v>169</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>19</v>
@@ -6172,46 +6203,42 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>358</v>
+        <v>19</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>133</v>
+        <v>228</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>359</v>
+        <v>229</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>19</v>
       </c>
@@ -6259,22 +6286,22 @@
         <v>19</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>361</v>
+        <v>231</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>19</v>
@@ -6291,14 +6318,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6317,18 +6344,18 @@
         <v>19</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>320</v>
+        <v>132</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>19</v>
       </c>
@@ -6352,13 +6379,13 @@
         <v>19</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>324</v>
+        <v>19</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>366</v>
+        <v>19</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>367</v>
+        <v>19</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>19</v>
@@ -6376,7 +6403,7 @@
         <v>19</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>362</v>
+        <v>235</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6388,19 +6415,19 @@
         <v>19</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>368</v>
+        <v>169</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>369</v>
+        <v>19</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>19</v>
@@ -6408,43 +6435,45 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>19</v>
+        <v>368</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O40" t="s" s="2">
-        <v>373</v>
+        <v>149</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>19</v>
@@ -6493,31 +6522,31 @@
         <v>19</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>374</v>
+        <v>19</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>19</v>
@@ -6525,10 +6554,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6551,19 +6580,17 @@
         <v>19</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>173</v>
+        <v>329</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>177</v>
+        <v>375</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>19</v>
@@ -6588,13 +6615,13 @@
         <v>19</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>19</v>
+        <v>333</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>19</v>
+        <v>376</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>19</v>
+        <v>377</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>19</v>
@@ -6612,7 +6639,7 @@
         <v>19</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6627,10 +6654,10 @@
         <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>178</v>
+        <v>378</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>19</v>
@@ -6670,7 +6697,7 @@
         <v>19</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c r="L42" t="s" s="2">
         <v>381</v>
@@ -6744,10 +6771,10 @@
         <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>19</v>
@@ -6775,7 +6802,7 @@
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>19</v>
@@ -6787,17 +6814,19 @@
         <v>19</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>107</v>
+        <v>181</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>182</v>
+        <v>386</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="O43" t="s" s="2">
-        <v>387</v>
+        <v>185</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>19</v>
@@ -6822,13 +6851,13 @@
         <v>19</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>186</v>
+        <v>19</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>187</v>
+        <v>19</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>188</v>
+        <v>19</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>19</v>
@@ -6852,7 +6881,7 @@
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>19</v>
@@ -6861,16 +6890,16 @@
         <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>19</v>
@@ -6878,10 +6907,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6904,7 +6933,7 @@
         <v>19</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>390</v>
+        <v>219</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>391</v>
@@ -6963,7 +6992,7 @@
         <v>19</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6972,22 +7001,22 @@
         <v>87</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>394</v>
+        <v>19</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>395</v>
+        <v>224</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>19</v>
@@ -6995,10 +7024,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7021,16 +7050,18 @@
         <v>19</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>311</v>
+        <v>107</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>398</v>
+        <v>190</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>19</v>
       </c>
@@ -7054,13 +7085,13 @@
         <v>19</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>19</v>
+        <v>194</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>19</v>
+        <v>195</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>19</v>
@@ -7078,7 +7109,7 @@
         <v>19</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7093,16 +7124,16 @@
         <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>400</v>
+        <v>197</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>19</v>
+        <v>398</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>19</v>
@@ -7110,10 +7141,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7124,7 +7155,7 @@
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>19</v>
@@ -7136,19 +7167,17 @@
         <v>19</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>347</v>
+        <v>400</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>19</v>
@@ -7197,31 +7226,31 @@
         <v>19</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>19</v>
+        <v>404</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>19</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>19</v>
@@ -7229,10 +7258,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7255,13 +7284,13 @@
         <v>19</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>220</v>
+        <v>320</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>221</v>
+        <v>408</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>222</v>
+        <v>409</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7312,7 +7341,7 @@
         <v>19</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>223</v>
+        <v>407</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7324,13 +7353,13 @@
         <v>19</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>161</v>
+        <v>410</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>19</v>
+        <v>169</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>19</v>
@@ -7344,14 +7373,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7370,18 +7399,20 @@
         <v>19</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>133</v>
+        <v>356</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>134</v>
+        <v>412</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>356</v>
+        <v>413</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>19</v>
       </c>
@@ -7429,7 +7460,7 @@
         <v>19</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>230</v>
+        <v>411</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7441,13 +7472,13 @@
         <v>19</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>161</v>
+        <v>416</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>19</v>
+        <v>417</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>19</v>
@@ -7461,46 +7492,42 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>358</v>
+        <v>19</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>133</v>
+        <v>228</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>359</v>
+        <v>229</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>19</v>
       </c>
@@ -7548,22 +7575,22 @@
         <v>19</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>361</v>
+        <v>231</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>19</v>
@@ -7580,21 +7607,21 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>19</v>
@@ -7606,20 +7633,18 @@
         <v>19</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>320</v>
+        <v>132</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>412</v>
+        <v>365</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>413</v>
+        <v>366</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>415</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>19</v>
       </c>
@@ -7643,13 +7668,13 @@
         <v>19</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>19</v>
@@ -7667,31 +7692,31 @@
         <v>19</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>411</v>
+        <v>235</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>416</v>
+        <v>169</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>417</v>
+        <v>19</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>418</v>
+        <v>19</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>19</v>
@@ -7699,45 +7724,45 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>19</v>
+        <v>368</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>420</v>
+        <v>369</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>421</v>
+        <v>370</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>422</v>
+        <v>148</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>423</v>
+        <v>149</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>19</v>
@@ -7786,31 +7811,31 @@
         <v>19</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>419</v>
+        <v>371</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>424</v>
+        <v>130</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>425</v>
+        <v>19</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>426</v>
+        <v>19</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>19</v>
@@ -7818,21 +7843,21 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>428</v>
+        <v>19</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>19</v>
@@ -7844,18 +7869,20 @@
         <v>19</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>429</v>
+        <v>329</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="O52" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>19</v>
       </c>
@@ -7879,13 +7906,13 @@
         <v>19</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>19</v>
@@ -7903,13 +7930,13 @@
         <v>19</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>19</v>
@@ -7918,16 +7945,16 @@
         <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>161</v>
+        <v>427</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>19</v>
@@ -7935,10 +7962,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7958,22 +7985,22 @@
         <v>19</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>390</v>
+        <v>161</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>19</v>
@@ -8022,7 +8049,7 @@
         <v>19</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8037,16 +8064,16 @@
         <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>395</v>
+        <v>434</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>19</v>
+        <v>436</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>19</v>
@@ -8054,14 +8081,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>19</v>
+        <v>438</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8074,26 +8101,24 @@
         <v>19</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>347</v>
+        <v>439</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="N54" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="M54" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>445</v>
-      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>19</v>
       </c>
@@ -8141,7 +8166,7 @@
         <v>19</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8156,16 +8181,16 @@
         <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>19</v>
+        <v>444</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>19</v>
@@ -8173,10 +8198,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8196,19 +8221,23 @@
         <v>19</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>221</v>
+        <v>446</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>449</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>19</v>
       </c>
@@ -8256,7 +8285,7 @@
         <v>19</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>223</v>
+        <v>445</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8268,13 +8297,13 @@
         <v>19</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>161</v>
+        <v>405</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>19</v>
+        <v>450</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>19</v>
@@ -8288,14 +8317,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8308,24 +8337,26 @@
         <v>19</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>133</v>
+        <v>356</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>134</v>
+        <v>452</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>356</v>
+        <v>453</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O56" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>19</v>
       </c>
@@ -8373,7 +8404,7 @@
         <v>19</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>230</v>
+        <v>451</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8385,13 +8416,13 @@
         <v>19</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>161</v>
+        <v>456</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>19</v>
+        <v>169</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>19</v>
@@ -8405,46 +8436,42 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>358</v>
+        <v>19</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>133</v>
+        <v>228</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>359</v>
+        <v>229</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>19</v>
       </c>
@@ -8492,22 +8519,22 @@
         <v>19</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>361</v>
+        <v>231</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>19</v>
@@ -8524,21 +8551,21 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>19</v>
@@ -8547,19 +8574,19 @@
         <v>19</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>451</v>
+        <v>132</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>452</v>
+        <v>365</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>453</v>
+        <v>366</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>454</v>
+        <v>148</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8609,31 +8636,31 @@
         <v>19</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>450</v>
+        <v>235</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>455</v>
+        <v>19</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>19</v>
@@ -8641,42 +8668,46 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>19</v>
+        <v>368</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>457</v>
+        <v>369</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>19</v>
       </c>
@@ -8700,13 +8731,13 @@
         <v>19</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>186</v>
+        <v>19</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>458</v>
+        <v>19</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>459</v>
+        <v>19</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>19</v>
@@ -8724,38 +8755,270 @@
         <v>19</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>456</v>
+        <v>371</v>
       </c>
       <c r="AG59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="AH59" t="s" s="2">
+      <c r="G60" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="AI59" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
+      <c r="H60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="O60" s="2"/>
+      <c r="P60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AK59" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AO59" t="s" s="2">
+      <c r="AK60" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AO61" t="s" s="2">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO59">
+  <autoFilter ref="A1:AO61">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8765,7 +9028,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI58">
+  <conditionalFormatting sqref="A2:AI60">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
